--- a/Output/Tables_Columns/FSS_parsing_SQL_sub_selects.xlsx
+++ b/Output/Tables_Columns/FSS_parsing_SQL_sub_selects.xlsx
@@ -547,7 +547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,7 +1071,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TOT_AVL_LMT_AMT</t>
+          <t>#PDATE</t>
         </is>
       </c>
     </row>
@@ -1085,637 +1085,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TOT_AVL_LMT_AMT</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>OD</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>B00397055F38C5365C64B45D8CD5DFE3</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>UNION</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>SELECT</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>CASE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>WHEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>THEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>CASE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>WHEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>NVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>THEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>NVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>ELSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>END</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>ELSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>END</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>TOT_AVL_LMT_AMT</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>FROM</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>TWT_FNC_SVC_AR_ANL_FCT_FA_CHG</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>AC_AR</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>LEFT</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>JOIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>AR_X_LMT_TP_RLTNP</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>AR_X_LMT</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>LEFT</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>JOIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>AR_TVR_SMY</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>TVR_SMY</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>PDATE</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>LEFT</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>JOIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>WHERE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>OD</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>B00397055F38C5365C64B45D8CD5DFE3</t>
+          <t>SUM(TOT_AVL_LMT_AMT) TOT_AVL_LMT_AMT</t>
         </is>
       </c>
     </row>

--- a/Output/Tables_Columns/FSS_parsing_SQL_sub_selects.xlsx
+++ b/Output/Tables_Columns/FSS_parsing_SQL_sub_selects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table Name, Alias" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Full_table" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table Name, Alias" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full_table" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,83 +454,304 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LOAN</t>
+          <t>TWT_FNC_SVC_AR_ANL_FCT_FA_CHG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LOAN</t>
+          <t>AC_AR</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TWT_FNC_SVC_AR_ANL_FCT_FA_CHG</t>
+          <t>AR_X_RI_RLTNP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AC_AR</t>
+          <t>AR_X_RI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AR_X_LMT_TP_RLTNP</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AR_X_LMT</t>
+          <t>RI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AR_TVR_SMY</t>
+          <t>RI_VAL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TVR_SMY</t>
+          <t>RI_VAL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RI_X_UDF_RLTNP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RI_X_UDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AR_LC_ST</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LC_ST</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RI_X_CL_RLTNP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>RI_X_CL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AR_X_AR_RLTNP</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AR_X_AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AR_CR_USG_SMY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CR_USG_SMY</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TWT_FNC_SVC_AR_ANL_FCT_FA_CHG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AC_AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AR_X_LMT_TP_RLTNP</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AR_X_LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AR_TVR_SMY</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TVR_SMY</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -547,7 +768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +801,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -602,7 +823,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -624,7 +845,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -639,14 +860,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AC_AR_ID</t>
+          <t>LAST_EFF_DT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -661,14 +882,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AC_AR_ID</t>
+          <t>LAST_EFF_DT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -683,14 +904,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MUD</t>
+          <t>LAST_EFF_DT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -712,380 +933,2112 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TWT_FNC_SVC_AR_ANL_FCT_FA_CHG</t>
+          <t>AR_X_RI_RLTNP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AC_AR</t>
+          <t>AR_X_RI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LAST_EFF_DT</t>
+          <t>AR_ID</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AR_X_LMT_TP_RLTNP</t>
+          <t>AR_X_RI_RLTNP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AR_X_LMT</t>
+          <t>AR_X_RI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LMT_AMT</t>
+          <t>EFF_DT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AR_X_LMT_TP_RLTNP</t>
+          <t>AR_X_RI_RLTNP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AR_X_LMT</t>
+          <t>AR_X_RI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LMT_AMT</t>
+          <t>END_DT</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AR_X_LMT_TP_RLTNP</t>
+          <t>AR_X_RI_RLTNP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AR_X_LMT</t>
+          <t>AR_X_RI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LMT_AMT</t>
+          <t>AR_X_RI_RLTNP_TP_ID</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AR_X_LMT_TP_RLTNP</t>
+          <t>AR_X_RI_RLTNP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AR_X_LMT</t>
+          <t>AR_X_RI</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AR_ID</t>
+          <t>SRC_STM_ID</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AR_X_LMT_TP_RLTNP</t>
+          <t>AR_X_RI_RLTNP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AR_X_LMT</t>
+          <t>AR_X_RI</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EFF_DT</t>
+          <t>RI_ID</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AR_X_LMT_TP_RLTNP</t>
+          <t>AR_X_RI_RLTNP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AR_X_LMT</t>
+          <t>AR_X_RI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>END_DT</t>
+          <t>AR_ID</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AR_X_LMT_TP_RLTNP</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AR_X_LMT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LMT_TP_ID</t>
+          <t>RI_ID</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TOT_AVL_LMT_AMT</t>
+          <t>SRC_STM_ID</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AR_ID</t>
+          <t>RI_ID</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LOAN</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LOAN</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AC_AR_ID</t>
+          <t>RI_ID</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LOAN</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LOAN</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AC_AR_ID</t>
+          <t>RI_ID</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AR_TVR_SMY</t>
+          <t>RI_VAL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TVR_SMY</t>
+          <t>RI_VAL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CLS_VAL_BAL_LCY</t>
+          <t>CLT_VALT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AR_TVR_SMY</t>
+          <t>RI_VAL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TVR_SMY</t>
+          <t>RI_VAL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CLS_VAL_BAL_LCY</t>
+          <t>LMT_CTB</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AR_TVR_SMY</t>
+          <t>RI_VAL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TVR_SMY</t>
+          <t>RI_VAL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AR_ID</t>
+          <t>RI_ID</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AR_TVR_SMY</t>
+          <t>RI_VAL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TVR_SMY</t>
+          <t>RI_VAL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MSR_PRD_ID</t>
+          <t>VAL_AMT</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>#PDATE</t>
+          <t>VAL_AMT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>RI_VAL_TP_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>EFF_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>END_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>RI_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>RI_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RI_X_UDF_RLTNP</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>RI_X_UDF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>RI_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>RI_X_UDF_RLTNP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>RI_X_UDF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>EFF_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RI_X_UDF_RLTNP</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>RI_X_UDF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>END_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RI_X_UDF_RLTNP</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>RI_X_UDF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>UDF_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RI_X_UDF_RLTNP</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>RI_X_UDF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>UDF_VAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>RI_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CL_NM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AR_LC_ST</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>LC_ST</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AR_LC_ST</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>LC_ST</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SRC_STM_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AR_LC_ST</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>LC_ST</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>AR_LC_ST_SCM_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AR_LC_ST</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>LC_ST</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>EFF_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AR_LC_ST</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>LC_ST</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>END_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AR_LC_ST</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>LC_ST</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>AR_LC_ST_TP_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>RI_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>VAL_AMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>VAL_AMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>RI_VAL_TP_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>EFF_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>END_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>RI_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CL_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CL_SCM_CODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CL_CODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>RI_X_CL_RLTNP</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>RI_X_CL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CL_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RI_X_CL_RLTNP</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>RI_X_CL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>EFF_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RI_X_CL_RLTNP</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>RI_X_CL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>END_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RI_X_CL_RLTNP</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>RI_X_CL</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>RI_X_CL_RLTNP_TP_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CL_NM</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CL_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>AR_X_AR_RLTNP</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>AR_X_AR</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SBJ_AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>AR_X_AR_RLTNP</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>AR_X_AR</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>OBJ_AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>AR_X_AR_RLTNP</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>AR_X_AR</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SRC_STM_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>AR_X_AR_RLTNP</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>AR_X_AR</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>EFF_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>AR_X_AR_RLTNP</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>AR_X_AR</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>END_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>AR_X_AR_RLTNP</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>AR_X_AR</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>AR_X_AR_RLTNP_TP_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>AR_CR_USG_SMY</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CR_USG_SMY</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CLS_AVL_AMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>AR_CR_USG_SMY</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CR_USG_SMY</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>AR_CR_USG_SMY</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CR_USG_SMY</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>MSR_PRD_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>AC_AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>AC_AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TWT_FNC_SVC_AR_ANL_FCT_FA_CHG</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>AC_AR</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>AC_AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TWT_FNC_SVC_AR_ANL_FCT_FA_CHG</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>AC_AR</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>AC_AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TWT_FNC_SVC_AR_ANL_FCT_FA_CHG</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>AC_AR</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AC_AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TWT_FNC_SVC_AR_ANL_FCT_FA_CHG</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>AC_AR</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AC_AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TWT_FNC_SVC_AR_ANL_FCT_FA_CHG</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>AC_AR</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TWT_FNC_SVC_AR_ANL_FCT_FA_CHG</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>AC_AR</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>LAST_EFF_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TWT_FNC_SVC_AR_ANL_FCT_FA_CHG</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>AC_AR</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>LAST_EFF_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>AR_X_LMT_TP_RLTNP</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>AR_X_LMT</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>LMT_AMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>AR_X_LMT_TP_RLTNP</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>AR_X_LMT</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>LMT_AMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>AR_X_LMT_TP_RLTNP</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>AR_X_LMT</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>LMT_AMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>AR_X_LMT_TP_RLTNP</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>AR_X_LMT</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>AR_X_LMT_TP_RLTNP</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>AR_X_LMT</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>EFF_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>AR_X_LMT_TP_RLTNP</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>AR_X_LMT</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>END_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>AR_X_LMT_TP_RLTNP</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>AR_X_LMT</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>LMT_TP_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>AR_TVR_SMY</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>TVR_SMY</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CLS_VAL_BAL_LCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>AR_TVR_SMY</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>TVR_SMY</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CLS_VAL_BAL_LCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>AR_TVR_SMY</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>TVR_SMY</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>AR_TVR_SMY</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>TVR_SMY</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MSR_PRD_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TOT_AVL_LMT_AMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>AR_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>CL_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CL_SCM_CODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CL_CODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CL_NM</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CL_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>RI_X_CL</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CL_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>RI_X_CL</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>EFF_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>RI_X_CL</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>END_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>RI_X_CL</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>RI_X_CL_RLTNP_TP_ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>'121101'
+		,'121102'
+		,'121103'
+		,'121991'
+		,'121992'
+		,'121993'
+		,'122101'
+		,'122102'
+		,'122201'
+		,'122202'
+		,'122203'
+		,'123101'
+		,'123102'
+		,'123201'
+		,'123202'
+		,'123301'
+		,'123302'
+		,'124001'
+		,'124002'
+		,'124003'
+		,'125001'
+		,'125002'
+		,'125003'
+		,'126001'
+		,'126002'
+		,'126003'
+		,'129991'
+		,'129992'
+		,'129993'
+		,'170301'
+		,'170302'</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>RI_LC_ST_TP_ID = '4C32D5E60A5794603A48F0E1AC950315'</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>(
+		'7D108472968DF6F6A56D5BDFC01488A9'
+		,'06CD0B184A47E6CEB56653555A20950F'
+		)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>#PDATE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>RI_VAL</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>'CLT_VALT'
+			,'LMT_CTB'</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>COLL_CGY</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>#PDATE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
         <is>
           <t>SUM(TOT_AVL_LMT_AMT) TOT_AVL_LMT_AMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>#PDATE</t>
         </is>
       </c>
     </row>
